--- a/assignments/assignment_5/group_3_ass_5_2023/ 2013_Mayo.xlsx
+++ b/assignments/assignment_5/group_3_ass_5_2023/ 2013_Mayo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="199">
   <si>
     <t>Préstamos hasta 30 días</t>
   </si>
@@ -91,502 +91,526 @@
     <t>-</t>
   </si>
   <si>
-    <t>31.37</t>
-  </si>
-  <si>
-    <t>28.10</t>
-  </si>
-  <si>
-    <t>29.03</t>
-  </si>
-  <si>
-    <t>31.51</t>
-  </si>
-  <si>
-    <t>31.09</t>
-  </si>
-  <si>
-    <t>27.79</t>
-  </si>
-  <si>
-    <t>43.56</t>
-  </si>
-  <si>
-    <t>35.27</t>
-  </si>
-  <si>
-    <t>51.77</t>
-  </si>
-  <si>
-    <t>46.89</t>
-  </si>
-  <si>
-    <t>44.48</t>
-  </si>
-  <si>
-    <t>36.45</t>
-  </si>
-  <si>
-    <t>51.78</t>
-  </si>
-  <si>
-    <t>35.64</t>
-  </si>
-  <si>
-    <t>26.39</t>
-  </si>
-  <si>
-    <t>24.67</t>
-  </si>
-  <si>
-    <t>26.82</t>
-  </si>
-  <si>
-    <t>32.80</t>
-  </si>
-  <si>
-    <t>36.43</t>
-  </si>
-  <si>
-    <t>29.58</t>
-  </si>
-  <si>
-    <t>34.31</t>
-  </si>
-  <si>
-    <t>32.78</t>
-  </si>
-  <si>
-    <t>44.57</t>
-  </si>
-  <si>
-    <t>38.59</t>
-  </si>
-  <si>
-    <t>52.42</t>
-  </si>
-  <si>
-    <t>45.11</t>
-  </si>
-  <si>
-    <t>44.30</t>
-  </si>
-  <si>
-    <t>43.96</t>
-  </si>
-  <si>
-    <t>33.42</t>
-  </si>
-  <si>
-    <t>49.44</t>
-  </si>
-  <si>
-    <t>25.14</t>
-  </si>
-  <si>
-    <t>41.29</t>
-  </si>
-  <si>
-    <t>101.22</t>
-  </si>
-  <si>
-    <t>70.34</t>
-  </si>
-  <si>
-    <t>39.45</t>
-  </si>
-  <si>
-    <t>33.64</t>
-  </si>
-  <si>
-    <t>34.82</t>
-  </si>
-  <si>
-    <t>55.45</t>
-  </si>
-  <si>
-    <t>113.55</t>
-  </si>
-  <si>
-    <t>96.28</t>
-  </si>
-  <si>
-    <t>69.26</t>
-  </si>
-  <si>
-    <t>50.43</t>
-  </si>
-  <si>
-    <t>45.74</t>
+    <t>23.87</t>
+  </si>
+  <si>
+    <t>30.26</t>
+  </si>
+  <si>
+    <t>29.56</t>
+  </si>
+  <si>
+    <t>30.61</t>
+  </si>
+  <si>
+    <t>24.74</t>
+  </si>
+  <si>
+    <t>30.91</t>
+  </si>
+  <si>
+    <t>44.16</t>
+  </si>
+  <si>
+    <t>42.58</t>
+  </si>
+  <si>
+    <t>34.10</t>
+  </si>
+  <si>
+    <t>46.59</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>45.42</t>
+  </si>
+  <si>
+    <t>36.23</t>
+  </si>
+  <si>
+    <t>55.18</t>
+  </si>
+  <si>
+    <t>35.82</t>
+  </si>
+  <si>
+    <t>26.62</t>
+  </si>
+  <si>
+    <t>26.08</t>
+  </si>
+  <si>
+    <t>27.16</t>
+  </si>
+  <si>
+    <t>32.06</t>
+  </si>
+  <si>
+    <t>44.72</t>
+  </si>
+  <si>
+    <t>28.18</t>
+  </si>
+  <si>
+    <t>32.88</t>
+  </si>
+  <si>
+    <t>32.45</t>
+  </si>
+  <si>
+    <t>45.22</t>
+  </si>
+  <si>
+    <t>53.32</t>
+  </si>
+  <si>
+    <t>46.52</t>
+  </si>
+  <si>
+    <t>45.69</t>
+  </si>
+  <si>
+    <t>44.95</t>
+  </si>
+  <si>
+    <t>36.10</t>
+  </si>
+  <si>
+    <t>30.03</t>
+  </si>
+  <si>
+    <t>37.77</t>
+  </si>
+  <si>
+    <t>38.96</t>
+  </si>
+  <si>
+    <t>132.02</t>
+  </si>
+  <si>
+    <t>70.89</t>
+  </si>
+  <si>
+    <t>49.69</t>
+  </si>
+  <si>
+    <t>38.98</t>
+  </si>
+  <si>
+    <t>24.76</t>
+  </si>
+  <si>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>104.01</t>
+  </si>
+  <si>
+    <t>82.19</t>
+  </si>
+  <si>
+    <t>80.34</t>
+  </si>
+  <si>
+    <t>45.58</t>
+  </si>
+  <si>
+    <t>43.70</t>
+  </si>
+  <si>
+    <t>25.08</t>
+  </si>
+  <si>
+    <t>30.28</t>
+  </si>
+  <si>
+    <t>24.95</t>
+  </si>
+  <si>
+    <t>31.49</t>
+  </si>
+  <si>
+    <t>37.67</t>
+  </si>
+  <si>
+    <t>33.40</t>
+  </si>
+  <si>
+    <t>30.79</t>
+  </si>
+  <si>
+    <t>29.89</t>
+  </si>
+  <si>
+    <t>36.07</t>
+  </si>
+  <si>
+    <t>38.48</t>
+  </si>
+  <si>
+    <t>42.07</t>
+  </si>
+  <si>
+    <t>37.03</t>
+  </si>
+  <si>
+    <t>31.31</t>
+  </si>
+  <si>
+    <t>26.73</t>
+  </si>
+  <si>
+    <t>33.23</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>35.42</t>
+  </si>
+  <si>
+    <t>45.90</t>
+  </si>
+  <si>
+    <t>41.68</t>
+  </si>
+  <si>
+    <t>40.62</t>
+  </si>
+  <si>
+    <t>34.40</t>
+  </si>
+  <si>
+    <t>41.22</t>
+  </si>
+  <si>
+    <t>49.51</t>
+  </si>
+  <si>
+    <t>44.65</t>
+  </si>
+  <si>
+    <t>46.95</t>
+  </si>
+  <si>
+    <t>43.11</t>
+  </si>
+  <si>
+    <t>40.41</t>
+  </si>
+  <si>
+    <t>23.93</t>
+  </si>
+  <si>
+    <t>23.88</t>
+  </si>
+  <si>
+    <t>23.94</t>
+  </si>
+  <si>
+    <t>14.78</t>
+  </si>
+  <si>
+    <t>25.39</t>
+  </si>
+  <si>
+    <t>24.62</t>
+  </si>
+  <si>
+    <t>25.32</t>
+  </si>
+  <si>
+    <t>28.02</t>
+  </si>
+  <si>
+    <t>24.82</t>
+  </si>
+  <si>
+    <t>36.80</t>
+  </si>
+  <si>
+    <t>43.41</t>
+  </si>
+  <si>
+    <t>38.03</t>
+  </si>
+  <si>
+    <t>34.02</t>
+  </si>
+  <si>
+    <t>36.03</t>
+  </si>
+  <si>
+    <t>37.05</t>
+  </si>
+  <si>
+    <t>35.25</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>15.09</t>
+  </si>
+  <si>
+    <t>14.94</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.47</t>
+  </si>
+  <si>
+    <t>24.39</t>
+  </si>
+  <si>
+    <t>20.51</t>
+  </si>
+  <si>
+    <t>32.83</t>
+  </si>
+  <si>
+    <t>29.41</t>
+  </si>
+  <si>
+    <t>38.54</t>
+  </si>
+  <si>
+    <t>34.08</t>
+  </si>
+  <si>
+    <t>36.40</t>
+  </si>
+  <si>
+    <t>44.36</t>
+  </si>
+  <si>
+    <t>37.76</t>
+  </si>
+  <si>
+    <t>38.11</t>
+  </si>
+  <si>
+    <t>48.63</t>
+  </si>
+  <si>
+    <t>37.84</t>
+  </si>
+  <si>
+    <t>20.11</t>
+  </si>
+  <si>
+    <t>18.16</t>
+  </si>
+  <si>
+    <t>26.78</t>
+  </si>
+  <si>
+    <t>37.51</t>
+  </si>
+  <si>
+    <t>30.56</t>
+  </si>
+  <si>
+    <t>28.24</t>
+  </si>
+  <si>
+    <t>26.31</t>
+  </si>
+  <si>
+    <t>34.33</t>
+  </si>
+  <si>
+    <t>33.60</t>
+  </si>
+  <si>
+    <t>35.41</t>
+  </si>
+  <si>
+    <t>33.76</t>
+  </si>
+  <si>
+    <t>35.31</t>
+  </si>
+  <si>
+    <t>34.25</t>
+  </si>
+  <si>
+    <t>31.99</t>
+  </si>
+  <si>
+    <t>27.26</t>
+  </si>
+  <si>
+    <t>32.68</t>
+  </si>
+  <si>
+    <t>9.81</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.74</t>
+  </si>
+  <si>
+    <t>23.97</t>
+  </si>
+  <si>
+    <t>26.02</t>
+  </si>
+  <si>
+    <t>20.14</t>
+  </si>
+  <si>
+    <t>21.08</t>
+  </si>
+  <si>
+    <t>29.07</t>
+  </si>
+  <si>
+    <t>36.16</t>
+  </si>
+  <si>
+    <t>29.85</t>
+  </si>
+  <si>
+    <t>31.65</t>
+  </si>
+  <si>
+    <t>31.20</t>
+  </si>
+  <si>
+    <t>26.41</t>
+  </si>
+  <si>
+    <t>42.17</t>
+  </si>
+  <si>
+    <t>46.21</t>
+  </si>
+  <si>
+    <t>38.92</t>
+  </si>
+  <si>
+    <t>43.94</t>
+  </si>
+  <si>
+    <t>42.05</t>
+  </si>
+  <si>
+    <t>36.54</t>
+  </si>
+  <si>
+    <t>40.59</t>
+  </si>
+  <si>
+    <t>34.07</t>
+  </si>
+  <si>
+    <t>22.30</t>
+  </si>
+  <si>
+    <t>27.69</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>37.22</t>
+  </si>
+  <si>
+    <t>27.25</t>
+  </si>
+  <si>
+    <t>34.94</t>
+  </si>
+  <si>
+    <t>37.57</t>
+  </si>
+  <si>
+    <t>36.72</t>
+  </si>
+  <si>
+    <t>34.27</t>
+  </si>
+  <si>
+    <t>25.60</t>
+  </si>
+  <si>
+    <t>28.67</t>
+  </si>
+  <si>
+    <t>25.43</t>
+  </si>
+  <si>
+    <t>19.23</t>
+  </si>
+  <si>
+    <t>15.83</t>
+  </si>
+  <si>
+    <t>24.26</t>
+  </si>
+  <si>
+    <t>19.40</t>
+  </si>
+  <si>
+    <t>23.30</t>
+  </si>
+  <si>
+    <t>27.44</t>
+  </si>
+  <si>
+    <t>50.37</t>
+  </si>
+  <si>
+    <t>27.28</t>
   </si>
   <si>
     <t>27.91</t>
   </si>
   <si>
-    <t>27.20</t>
-  </si>
-  <si>
-    <t>27.97</t>
-  </si>
-  <si>
-    <t>23.52</t>
-  </si>
-  <si>
-    <t>23.87</t>
-  </si>
-  <si>
-    <t>23.05</t>
-  </si>
-  <si>
-    <t>27.74</t>
-  </si>
-  <si>
-    <t>27.75</t>
-  </si>
-  <si>
-    <t>29.66</t>
-  </si>
-  <si>
-    <t>25.57</t>
-  </si>
-  <si>
-    <t>27.67</t>
-  </si>
-  <si>
-    <t>35.82</t>
-  </si>
-  <si>
-    <t>69.59</t>
-  </si>
-  <si>
-    <t>32.92</t>
-  </si>
-  <si>
-    <t>38.83</t>
+    <t>29.75</t>
+  </si>
+  <si>
+    <t>26.74</t>
+  </si>
+  <si>
+    <t>38.26</t>
   </si>
   <si>
     <t>43.23</t>
   </si>
   <si>
-    <t>34.89</t>
-  </si>
-  <si>
-    <t>38.66</t>
-  </si>
-  <si>
-    <t>37.65</t>
-  </si>
-  <si>
-    <t>38.97</t>
-  </si>
-  <si>
-    <t>34.70</t>
-  </si>
-  <si>
-    <t>49.51</t>
-  </si>
-  <si>
-    <t>42.33</t>
-  </si>
-  <si>
-    <t>40.82</t>
-  </si>
-  <si>
-    <t>33.65</t>
-  </si>
-  <si>
-    <t>43.25</t>
-  </si>
-  <si>
-    <t>42.58</t>
-  </si>
-  <si>
-    <t>45.95</t>
-  </si>
-  <si>
-    <t>46.76</t>
-  </si>
-  <si>
-    <t>44.76</t>
-  </si>
-  <si>
-    <t>42.64</t>
-  </si>
-  <si>
-    <t>29.86</t>
-  </si>
-  <si>
-    <t>30.32</t>
-  </si>
-  <si>
-    <t>29.75</t>
-  </si>
-  <si>
-    <t>14.84</t>
-  </si>
-  <si>
-    <t>14.83</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>27.12</t>
-  </si>
-  <si>
-    <t>22.15</t>
-  </si>
-  <si>
-    <t>30.25</t>
-  </si>
-  <si>
-    <t>32.72</t>
-  </si>
-  <si>
-    <t>27.40</t>
-  </si>
-  <si>
-    <t>37.81</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>39.58</t>
-  </si>
-  <si>
-    <t>40.06</t>
-  </si>
-  <si>
-    <t>43.91</t>
-  </si>
-  <si>
-    <t>36.97</t>
-  </si>
-  <si>
-    <t>32.86</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>32.74</t>
-  </si>
-  <si>
-    <t>24.32</t>
-  </si>
-  <si>
-    <t>22.73</t>
-  </si>
-  <si>
-    <t>23.84</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>28.29</t>
-  </si>
-  <si>
-    <t>35.91</t>
-  </si>
-  <si>
-    <t>32.71</t>
-  </si>
-  <si>
-    <t>28.85</t>
-  </si>
-  <si>
-    <t>31.13</t>
-  </si>
-  <si>
-    <t>27.77</t>
-  </si>
-  <si>
-    <t>36.19</t>
-  </si>
-  <si>
-    <t>32.35</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.23</t>
-  </si>
-  <si>
-    <t>40.17</t>
-  </si>
-  <si>
-    <t>35.85</t>
-  </si>
-  <si>
-    <t>38.13</t>
-  </si>
-  <si>
-    <t>35.65</t>
-  </si>
-  <si>
-    <t>10.20</t>
-  </si>
-  <si>
-    <t>10.05</t>
-  </si>
-  <si>
-    <t>21.31</t>
-  </si>
-  <si>
-    <t>20.27</t>
-  </si>
-  <si>
-    <t>23.82</t>
-  </si>
-  <si>
-    <t>23.55</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>29.04</t>
-  </si>
-  <si>
-    <t>28.56</t>
-  </si>
-  <si>
-    <t>30.53</t>
-  </si>
-  <si>
-    <t>30.97</t>
-  </si>
-  <si>
-    <t>31.96</t>
-  </si>
-  <si>
-    <t>26.10</t>
-  </si>
-  <si>
-    <t>40.98</t>
-  </si>
-  <si>
-    <t>51.11</t>
-  </si>
-  <si>
-    <t>38.89</t>
-  </si>
-  <si>
-    <t>43.17</t>
-  </si>
-  <si>
-    <t>43.40</t>
-  </si>
-  <si>
-    <t>35.56</t>
-  </si>
-  <si>
-    <t>37.45</t>
-  </si>
-  <si>
-    <t>43.66</t>
-  </si>
-  <si>
-    <t>34.86</t>
-  </si>
-  <si>
-    <t>30.36</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>32.27</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>29.95</t>
-  </si>
-  <si>
-    <t>35.71</t>
-  </si>
-  <si>
-    <t>38.45</t>
-  </si>
-  <si>
-    <t>39.07</t>
-  </si>
-  <si>
-    <t>35.46</t>
-  </si>
-  <si>
-    <t>23.62</t>
-  </si>
-  <si>
-    <t>36.13</t>
-  </si>
-  <si>
-    <t>23.21</t>
-  </si>
-  <si>
-    <t>20.47</t>
-  </si>
-  <si>
-    <t>18.70</t>
-  </si>
-  <si>
-    <t>23.30</t>
-  </si>
-  <si>
-    <t>24.63</t>
-  </si>
-  <si>
-    <t>24.69</t>
-  </si>
-  <si>
-    <t>29.29</t>
-  </si>
-  <si>
-    <t>46.34</t>
-  </si>
-  <si>
-    <t>31.12</t>
-  </si>
-  <si>
-    <t>30.54</t>
-  </si>
-  <si>
-    <t>32.49</t>
-  </si>
-  <si>
-    <t>28.17</t>
-  </si>
-  <si>
-    <t>40.54</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>41.66</t>
-  </si>
-  <si>
-    <t>42.93</t>
-  </si>
-  <si>
-    <t>43.90</t>
-  </si>
-  <si>
-    <t>38.94</t>
-  </si>
-  <si>
-    <t>34.99</t>
-  </si>
-  <si>
-    <t>40.24</t>
-  </si>
-  <si>
-    <t>33.72</t>
+    <t>42.02</t>
+  </si>
+  <si>
+    <t>43.04</t>
+  </si>
+  <si>
+    <t>39.90</t>
+  </si>
+  <si>
+    <t>36.39</t>
+  </si>
+  <si>
+    <t>33.44</t>
+  </si>
+  <si>
+    <t>36.28</t>
+  </si>
+  <si>
+    <t>32.29</t>
+  </si>
+  <si>
+    <t>11.31</t>
   </si>
 </sst>
 </file>
@@ -918,13 +942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -958,8 +982,11 @@
       <c r="K1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -993,8 +1020,11 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1028,8 +1058,11 @@
       <c r="K3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1096,11 @@
       <c r="K4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1098,8 +1134,11 @@
       <c r="K5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1125,16 +1164,19 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1168,8 +1210,11 @@
       <c r="K7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="K8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1238,8 +1286,11 @@
       <c r="K9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1265,16 +1316,19 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1303,13 +1357,16 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1343,8 +1400,11 @@
       <c r="K12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1352,34 +1412,37 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1413,8 +1476,11 @@
       <c r="K14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1448,8 +1514,11 @@
       <c r="K15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1463,28 +1532,31 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1492,34 +1564,37 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1527,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1539,22 +1614,25 @@
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1565,31 +1643,34 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1597,34 +1678,37 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1658,8 +1742,11 @@
       <c r="K21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1760,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
@@ -1682,19 +1769,22 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1702,34 +1792,37 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>168</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1737,34 +1830,37 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1772,34 +1868,37 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>169</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1807,34 +1906,37 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>170</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1842,34 +1944,37 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>171</v>
+      </c>
+      <c r="L27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1903,8 +2008,11 @@
       <c r="K28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1938,8 +2046,11 @@
       <c r="K29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1959,10 +2070,10 @@
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
@@ -1971,15 +2082,18 @@
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -1988,203 +2102,221 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I32" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J32" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>172</v>
+      </c>
+      <c r="L32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="J33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>173</v>
+      </c>
+      <c r="L33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>86</v>
+      </c>
+      <c r="L34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I35" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J35" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>174</v>
+      </c>
+      <c r="L35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J36" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>175</v>
+      </c>
+      <c r="L36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2218,8 +2350,11 @@
       <c r="K37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2253,8 +2388,11 @@
       <c r="K38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2288,78 +2426,87 @@
       <c r="K39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
         <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="J40" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>176</v>
+      </c>
+      <c r="L40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I41" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="J41" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K41" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>177</v>
+      </c>
+      <c r="L41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2393,8 +2540,11 @@
       <c r="K42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2414,22 +2564,25 @@
         <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="H43" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2449,19 +2602,22 @@
         <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="H44" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/assignments/assignment_5/group_3_ass_5_2023/ 2013_Mayo.xlsx
+++ b/assignments/assignment_5/group_3_ass_5_2023/ 2013_Mayo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="191">
   <si>
     <t>Préstamos hasta 30 días</t>
   </si>
@@ -91,526 +91,502 @@
     <t>-</t>
   </si>
   <si>
+    <t>31.37</t>
+  </si>
+  <si>
+    <t>28.10</t>
+  </si>
+  <si>
+    <t>29.03</t>
+  </si>
+  <si>
+    <t>31.51</t>
+  </si>
+  <si>
+    <t>31.09</t>
+  </si>
+  <si>
+    <t>27.79</t>
+  </si>
+  <si>
+    <t>43.56</t>
+  </si>
+  <si>
+    <t>35.27</t>
+  </si>
+  <si>
+    <t>51.77</t>
+  </si>
+  <si>
+    <t>46.89</t>
+  </si>
+  <si>
+    <t>44.48</t>
+  </si>
+  <si>
+    <t>36.45</t>
+  </si>
+  <si>
+    <t>51.78</t>
+  </si>
+  <si>
+    <t>35.64</t>
+  </si>
+  <si>
+    <t>26.39</t>
+  </si>
+  <si>
+    <t>24.67</t>
+  </si>
+  <si>
+    <t>26.82</t>
+  </si>
+  <si>
+    <t>32.80</t>
+  </si>
+  <si>
+    <t>36.43</t>
+  </si>
+  <si>
+    <t>29.58</t>
+  </si>
+  <si>
+    <t>34.31</t>
+  </si>
+  <si>
+    <t>32.78</t>
+  </si>
+  <si>
+    <t>44.57</t>
+  </si>
+  <si>
+    <t>38.59</t>
+  </si>
+  <si>
+    <t>52.42</t>
+  </si>
+  <si>
+    <t>45.11</t>
+  </si>
+  <si>
+    <t>44.30</t>
+  </si>
+  <si>
+    <t>43.96</t>
+  </si>
+  <si>
+    <t>33.42</t>
+  </si>
+  <si>
+    <t>49.44</t>
+  </si>
+  <si>
+    <t>25.14</t>
+  </si>
+  <si>
+    <t>41.29</t>
+  </si>
+  <si>
+    <t>101.22</t>
+  </si>
+  <si>
+    <t>70.34</t>
+  </si>
+  <si>
+    <t>39.45</t>
+  </si>
+  <si>
+    <t>33.64</t>
+  </si>
+  <si>
+    <t>34.82</t>
+  </si>
+  <si>
+    <t>55.45</t>
+  </si>
+  <si>
+    <t>113.55</t>
+  </si>
+  <si>
+    <t>96.28</t>
+  </si>
+  <si>
+    <t>69.26</t>
+  </si>
+  <si>
+    <t>50.43</t>
+  </si>
+  <si>
+    <t>45.74</t>
+  </si>
+  <si>
+    <t>27.91</t>
+  </si>
+  <si>
+    <t>27.20</t>
+  </si>
+  <si>
+    <t>27.97</t>
+  </si>
+  <si>
+    <t>23.52</t>
+  </si>
+  <si>
     <t>23.87</t>
   </si>
   <si>
-    <t>30.26</t>
-  </si>
-  <si>
-    <t>29.56</t>
-  </si>
-  <si>
-    <t>30.61</t>
-  </si>
-  <si>
-    <t>24.74</t>
-  </si>
-  <si>
-    <t>30.91</t>
-  </si>
-  <si>
-    <t>44.16</t>
+    <t>23.05</t>
+  </si>
+  <si>
+    <t>27.74</t>
+  </si>
+  <si>
+    <t>27.75</t>
+  </si>
+  <si>
+    <t>29.66</t>
+  </si>
+  <si>
+    <t>25.57</t>
+  </si>
+  <si>
+    <t>27.67</t>
+  </si>
+  <si>
+    <t>35.82</t>
+  </si>
+  <si>
+    <t>69.59</t>
+  </si>
+  <si>
+    <t>32.92</t>
+  </si>
+  <si>
+    <t>38.83</t>
+  </si>
+  <si>
+    <t>43.23</t>
+  </si>
+  <si>
+    <t>34.89</t>
+  </si>
+  <si>
+    <t>38.66</t>
+  </si>
+  <si>
+    <t>37.65</t>
+  </si>
+  <si>
+    <t>38.97</t>
+  </si>
+  <si>
+    <t>34.70</t>
+  </si>
+  <si>
+    <t>49.51</t>
+  </si>
+  <si>
+    <t>42.33</t>
+  </si>
+  <si>
+    <t>40.82</t>
+  </si>
+  <si>
+    <t>33.65</t>
+  </si>
+  <si>
+    <t>43.25</t>
   </si>
   <si>
     <t>42.58</t>
   </si>
   <si>
-    <t>34.10</t>
-  </si>
-  <si>
-    <t>46.59</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>45.42</t>
+    <t>45.95</t>
+  </si>
+  <si>
+    <t>46.76</t>
+  </si>
+  <si>
+    <t>44.76</t>
+  </si>
+  <si>
+    <t>42.64</t>
+  </si>
+  <si>
+    <t>29.86</t>
+  </si>
+  <si>
+    <t>30.32</t>
+  </si>
+  <si>
+    <t>29.75</t>
+  </si>
+  <si>
+    <t>14.84</t>
+  </si>
+  <si>
+    <t>14.83</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>27.12</t>
+  </si>
+  <si>
+    <t>22.15</t>
+  </si>
+  <si>
+    <t>30.25</t>
+  </si>
+  <si>
+    <t>32.72</t>
+  </si>
+  <si>
+    <t>27.40</t>
+  </si>
+  <si>
+    <t>37.81</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>39.58</t>
+  </si>
+  <si>
+    <t>40.06</t>
+  </si>
+  <si>
+    <t>43.91</t>
+  </si>
+  <si>
+    <t>36.97</t>
+  </si>
+  <si>
+    <t>32.86</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>32.74</t>
+  </si>
+  <si>
+    <t>24.32</t>
+  </si>
+  <si>
+    <t>22.73</t>
+  </si>
+  <si>
+    <t>23.84</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>28.29</t>
+  </si>
+  <si>
+    <t>35.91</t>
+  </si>
+  <si>
+    <t>32.71</t>
+  </si>
+  <si>
+    <t>28.85</t>
+  </si>
+  <si>
+    <t>31.13</t>
+  </si>
+  <si>
+    <t>27.77</t>
+  </si>
+  <si>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>32.35</t>
+  </si>
+  <si>
+    <t>36.00</t>
   </si>
   <si>
     <t>36.23</t>
   </si>
   <si>
-    <t>55.18</t>
-  </si>
-  <si>
-    <t>35.82</t>
-  </si>
-  <si>
-    <t>26.62</t>
-  </si>
-  <si>
-    <t>26.08</t>
-  </si>
-  <si>
-    <t>27.16</t>
-  </si>
-  <si>
-    <t>32.06</t>
-  </si>
-  <si>
-    <t>44.72</t>
-  </si>
-  <si>
-    <t>28.18</t>
-  </si>
-  <si>
-    <t>32.88</t>
-  </si>
-  <si>
-    <t>32.45</t>
-  </si>
-  <si>
-    <t>45.22</t>
-  </si>
-  <si>
-    <t>53.32</t>
-  </si>
-  <si>
-    <t>46.52</t>
-  </si>
-  <si>
-    <t>45.69</t>
-  </si>
-  <si>
-    <t>44.95</t>
-  </si>
-  <si>
-    <t>36.10</t>
-  </si>
-  <si>
-    <t>30.03</t>
-  </si>
-  <si>
-    <t>37.77</t>
-  </si>
-  <si>
-    <t>38.96</t>
-  </si>
-  <si>
-    <t>132.02</t>
-  </si>
-  <si>
-    <t>70.89</t>
-  </si>
-  <si>
-    <t>49.69</t>
-  </si>
-  <si>
-    <t>38.98</t>
-  </si>
-  <si>
-    <t>24.76</t>
-  </si>
-  <si>
-    <t>53.35</t>
-  </si>
-  <si>
-    <t>104.01</t>
-  </si>
-  <si>
-    <t>82.19</t>
-  </si>
-  <si>
-    <t>80.34</t>
-  </si>
-  <si>
-    <t>45.58</t>
-  </si>
-  <si>
-    <t>43.70</t>
-  </si>
-  <si>
-    <t>25.08</t>
-  </si>
-  <si>
-    <t>30.28</t>
-  </si>
-  <si>
-    <t>24.95</t>
-  </si>
-  <si>
-    <t>31.49</t>
-  </si>
-  <si>
-    <t>37.67</t>
-  </si>
-  <si>
-    <t>33.40</t>
-  </si>
-  <si>
-    <t>30.79</t>
-  </si>
-  <si>
-    <t>29.89</t>
-  </si>
-  <si>
-    <t>36.07</t>
-  </si>
-  <si>
-    <t>38.48</t>
-  </si>
-  <si>
-    <t>42.07</t>
-  </si>
-  <si>
-    <t>37.03</t>
-  </si>
-  <si>
-    <t>31.31</t>
-  </si>
-  <si>
-    <t>26.73</t>
-  </si>
-  <si>
-    <t>33.23</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>35.42</t>
-  </si>
-  <si>
-    <t>45.90</t>
-  </si>
-  <si>
-    <t>41.68</t>
-  </si>
-  <si>
-    <t>40.62</t>
-  </si>
-  <si>
-    <t>34.40</t>
-  </si>
-  <si>
-    <t>41.22</t>
-  </si>
-  <si>
-    <t>49.51</t>
-  </si>
-  <si>
-    <t>44.65</t>
-  </si>
-  <si>
-    <t>46.95</t>
-  </si>
-  <si>
-    <t>43.11</t>
-  </si>
-  <si>
-    <t>40.41</t>
-  </si>
-  <si>
-    <t>23.93</t>
-  </si>
-  <si>
-    <t>23.88</t>
-  </si>
-  <si>
-    <t>23.94</t>
-  </si>
-  <si>
-    <t>14.78</t>
-  </si>
-  <si>
-    <t>25.39</t>
-  </si>
-  <si>
-    <t>24.62</t>
-  </si>
-  <si>
-    <t>25.32</t>
-  </si>
-  <si>
-    <t>28.02</t>
-  </si>
-  <si>
-    <t>24.82</t>
-  </si>
-  <si>
-    <t>36.80</t>
-  </si>
-  <si>
-    <t>43.41</t>
-  </si>
-  <si>
-    <t>38.03</t>
-  </si>
-  <si>
-    <t>34.02</t>
-  </si>
-  <si>
-    <t>36.03</t>
-  </si>
-  <si>
-    <t>37.05</t>
-  </si>
-  <si>
-    <t>35.25</t>
-  </si>
-  <si>
-    <t>15.05</t>
-  </si>
-  <si>
-    <t>15.09</t>
-  </si>
-  <si>
-    <t>14.94</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.47</t>
-  </si>
-  <si>
-    <t>24.39</t>
-  </si>
-  <si>
-    <t>20.51</t>
-  </si>
-  <si>
-    <t>32.83</t>
-  </si>
-  <si>
-    <t>29.41</t>
-  </si>
-  <si>
-    <t>38.54</t>
-  </si>
-  <si>
-    <t>34.08</t>
-  </si>
-  <si>
-    <t>36.40</t>
-  </si>
-  <si>
-    <t>44.36</t>
-  </si>
-  <si>
-    <t>37.76</t>
-  </si>
-  <si>
-    <t>38.11</t>
-  </si>
-  <si>
-    <t>48.63</t>
-  </si>
-  <si>
-    <t>37.84</t>
-  </si>
-  <si>
-    <t>20.11</t>
-  </si>
-  <si>
-    <t>18.16</t>
-  </si>
-  <si>
-    <t>26.78</t>
-  </si>
-  <si>
-    <t>37.51</t>
-  </si>
-  <si>
-    <t>30.56</t>
-  </si>
-  <si>
-    <t>28.24</t>
-  </si>
-  <si>
-    <t>26.31</t>
-  </si>
-  <si>
-    <t>34.33</t>
-  </si>
-  <si>
-    <t>33.60</t>
-  </si>
-  <si>
-    <t>35.41</t>
-  </si>
-  <si>
-    <t>33.76</t>
-  </si>
-  <si>
-    <t>35.31</t>
-  </si>
-  <si>
-    <t>34.25</t>
-  </si>
-  <si>
-    <t>31.99</t>
-  </si>
-  <si>
-    <t>27.26</t>
-  </si>
-  <si>
-    <t>32.68</t>
-  </si>
-  <si>
-    <t>9.81</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.74</t>
-  </si>
-  <si>
-    <t>23.97</t>
-  </si>
-  <si>
-    <t>26.02</t>
-  </si>
-  <si>
-    <t>20.14</t>
-  </si>
-  <si>
-    <t>21.08</t>
-  </si>
-  <si>
-    <t>29.07</t>
-  </si>
-  <si>
-    <t>36.16</t>
-  </si>
-  <si>
-    <t>29.85</t>
-  </si>
-  <si>
-    <t>31.65</t>
-  </si>
-  <si>
-    <t>31.20</t>
-  </si>
-  <si>
-    <t>26.41</t>
-  </si>
-  <si>
-    <t>42.17</t>
-  </si>
-  <si>
-    <t>46.21</t>
-  </si>
-  <si>
-    <t>38.92</t>
-  </si>
-  <si>
-    <t>43.94</t>
-  </si>
-  <si>
-    <t>42.05</t>
-  </si>
-  <si>
-    <t>36.54</t>
-  </si>
-  <si>
-    <t>40.59</t>
-  </si>
-  <si>
-    <t>34.07</t>
-  </si>
-  <si>
-    <t>22.30</t>
-  </si>
-  <si>
-    <t>27.69</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>37.22</t>
-  </si>
-  <si>
-    <t>27.25</t>
-  </si>
-  <si>
-    <t>34.94</t>
-  </si>
-  <si>
-    <t>37.57</t>
-  </si>
-  <si>
-    <t>36.72</t>
-  </si>
-  <si>
-    <t>34.27</t>
-  </si>
-  <si>
-    <t>25.60</t>
-  </si>
-  <si>
-    <t>28.67</t>
-  </si>
-  <si>
-    <t>25.43</t>
-  </si>
-  <si>
-    <t>19.23</t>
-  </si>
-  <si>
-    <t>15.83</t>
-  </si>
-  <si>
-    <t>24.26</t>
-  </si>
-  <si>
-    <t>19.40</t>
+    <t>40.17</t>
+  </si>
+  <si>
+    <t>35.85</t>
+  </si>
+  <si>
+    <t>38.13</t>
+  </si>
+  <si>
+    <t>35.65</t>
+  </si>
+  <si>
+    <t>10.20</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>21.31</t>
+  </si>
+  <si>
+    <t>20.27</t>
+  </si>
+  <si>
+    <t>23.82</t>
+  </si>
+  <si>
+    <t>23.55</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>29.04</t>
+  </si>
+  <si>
+    <t>28.56</t>
+  </si>
+  <si>
+    <t>30.53</t>
+  </si>
+  <si>
+    <t>30.97</t>
+  </si>
+  <si>
+    <t>31.96</t>
+  </si>
+  <si>
+    <t>26.10</t>
+  </si>
+  <si>
+    <t>40.98</t>
+  </si>
+  <si>
+    <t>51.11</t>
+  </si>
+  <si>
+    <t>38.89</t>
+  </si>
+  <si>
+    <t>43.17</t>
+  </si>
+  <si>
+    <t>43.40</t>
+  </si>
+  <si>
+    <t>35.56</t>
+  </si>
+  <si>
+    <t>37.45</t>
+  </si>
+  <si>
+    <t>43.66</t>
+  </si>
+  <si>
+    <t>34.86</t>
+  </si>
+  <si>
+    <t>30.36</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>32.27</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>29.95</t>
+  </si>
+  <si>
+    <t>35.71</t>
+  </si>
+  <si>
+    <t>38.45</t>
+  </si>
+  <si>
+    <t>39.07</t>
+  </si>
+  <si>
+    <t>35.46</t>
+  </si>
+  <si>
+    <t>23.62</t>
+  </si>
+  <si>
+    <t>36.13</t>
+  </si>
+  <si>
+    <t>23.21</t>
+  </si>
+  <si>
+    <t>20.47</t>
+  </si>
+  <si>
+    <t>18.70</t>
   </si>
   <si>
     <t>23.30</t>
   </si>
   <si>
-    <t>27.44</t>
-  </si>
-  <si>
-    <t>50.37</t>
-  </si>
-  <si>
-    <t>27.28</t>
-  </si>
-  <si>
-    <t>27.91</t>
-  </si>
-  <si>
-    <t>29.75</t>
-  </si>
-  <si>
-    <t>26.74</t>
-  </si>
-  <si>
-    <t>38.26</t>
-  </si>
-  <si>
-    <t>43.23</t>
-  </si>
-  <si>
-    <t>42.02</t>
-  </si>
-  <si>
-    <t>43.04</t>
-  </si>
-  <si>
-    <t>39.90</t>
-  </si>
-  <si>
-    <t>36.39</t>
-  </si>
-  <si>
-    <t>33.44</t>
-  </si>
-  <si>
-    <t>36.28</t>
-  </si>
-  <si>
-    <t>32.29</t>
-  </si>
-  <si>
-    <t>11.31</t>
+    <t>24.63</t>
+  </si>
+  <si>
+    <t>24.69</t>
+  </si>
+  <si>
+    <t>29.29</t>
+  </si>
+  <si>
+    <t>46.34</t>
+  </si>
+  <si>
+    <t>31.12</t>
+  </si>
+  <si>
+    <t>30.54</t>
+  </si>
+  <si>
+    <t>32.49</t>
+  </si>
+  <si>
+    <t>28.17</t>
+  </si>
+  <si>
+    <t>40.54</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>41.66</t>
+  </si>
+  <si>
+    <t>42.93</t>
+  </si>
+  <si>
+    <t>43.90</t>
+  </si>
+  <si>
+    <t>38.94</t>
+  </si>
+  <si>
+    <t>34.99</t>
+  </si>
+  <si>
+    <t>40.24</t>
+  </si>
+  <si>
+    <t>33.72</t>
   </si>
 </sst>
 </file>
@@ -942,13 +918,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,11 +958,8 @@
       <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1020,11 +993,8 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1058,11 +1028,8 @@
       <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1096,11 +1063,8 @@
       <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1134,11 +1098,8 @@
       <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1164,19 +1125,16 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1210,11 +1168,8 @@
       <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1248,11 +1203,8 @@
       <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1286,11 +1238,8 @@
       <c r="K9" t="s">
         <v>24</v>
       </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1316,19 +1265,16 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1357,16 +1303,13 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1400,11 +1343,8 @@
       <c r="K12" t="s">
         <v>24</v>
       </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1412,37 +1352,34 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1476,11 +1413,8 @@
       <c r="K14" t="s">
         <v>24</v>
       </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1514,11 +1448,8 @@
       <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1532,31 +1463,28 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1564,37 +1492,34 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1602,7 +1527,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1614,25 +1539,22 @@
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1643,34 +1565,31 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1678,37 +1597,34 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1742,11 +1658,8 @@
       <c r="K21" t="s">
         <v>24</v>
       </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1673,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
@@ -1769,22 +1682,19 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1792,37 +1702,34 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1830,37 +1737,34 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J24" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1868,37 +1772,34 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1906,37 +1807,34 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1944,37 +1842,34 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K27" t="s">
-        <v>171</v>
-      </c>
-      <c r="L27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2008,11 +1903,8 @@
       <c r="K28" t="s">
         <v>24</v>
       </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2046,11 +1938,8 @@
       <c r="K29" t="s">
         <v>24</v>
       </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2070,10 +1959,10 @@
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
@@ -2082,18 +1971,15 @@
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -2102,221 +1988,203 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J32" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K32" t="s">
-        <v>172</v>
-      </c>
-      <c r="L32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>173</v>
-      </c>
-      <c r="L33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J34" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="K35" t="s">
-        <v>174</v>
-      </c>
-      <c r="L35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I36" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J36" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K36" t="s">
-        <v>175</v>
-      </c>
-      <c r="L36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2350,11 +2218,8 @@
       <c r="K37" t="s">
         <v>24</v>
       </c>
-      <c r="L37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2388,11 +2253,8 @@
       <c r="K38" t="s">
         <v>24</v>
       </c>
-      <c r="L38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2426,87 +2288,78 @@
       <c r="K39" t="s">
         <v>24</v>
       </c>
-      <c r="L39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
         <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H40" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I40" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s">
-        <v>176</v>
-      </c>
-      <c r="L40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J41" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K41" t="s">
-        <v>177</v>
-      </c>
-      <c r="L41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2540,11 +2393,8 @@
       <c r="K42" t="s">
         <v>24</v>
       </c>
-      <c r="L42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2564,25 +2414,22 @@
         <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="I43" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2602,22 +2449,19 @@
         <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="I44" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
